--- a/datasets/SpeciesCodes.xlsx
+++ b/datasets/SpeciesCodes.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\DataScienceFinalProject\datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6477AB09-FB1B-4CF8-95BB-C7CF24A97F0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68C82349-0B45-4C3C-A10C-0967190D43D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29580" yWindow="780" windowWidth="21600" windowHeight="11295" xr2:uid="{1D11FC9B-E356-463C-9C3C-9E14CBCB8E7A}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{1D11FC9B-E356-463C-9C3C-9E14CBCB8E7A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$69</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$68</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="77">
   <si>
     <t>Species</t>
   </si>
@@ -154,9 +154,6 @@
   </si>
   <si>
     <t>Black Bullhead</t>
-  </si>
-  <si>
-    <t>American Shad</t>
   </si>
   <si>
     <t>Bluntnose Minnow</t>
@@ -409,15 +406,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6FBAE9BD-2D8C-4CA4-90BD-6B7377181126}" name="Table1" displayName="Table1" ref="A1:D69" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D69">
-    <sortCondition ref="A1:A69"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6FBAE9BD-2D8C-4CA4-90BD-6B7377181126}" name="Table1" displayName="Table1" ref="A1:D68" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D68">
+    <sortCondition ref="A1:A68"/>
   </sortState>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{8DE9FF6F-3DF1-41EF-95F6-ECAE2872EC55}" name="Common_name" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{CC2F94B9-A8EB-4193-984B-B65D4F50E3F5}" name="Func_group" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{4E280310-117C-4E35-AD4D-B8C4C8398169}" name="Species" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{27AB9DE6-9E45-4F33-9541-6B9A565B3FD3}" name="Func_ID" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{8DE9FF6F-3DF1-41EF-95F6-ECAE2872EC55}" name="Common_name" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{CC2F94B9-A8EB-4193-984B-B65D4F50E3F5}" name="Func_group" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{4E280310-117C-4E35-AD4D-B8C4C8398169}" name="Species" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{27AB9DE6-9E45-4F33-9541-6B9A565B3FD3}" name="Func_ID" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -723,9 +720,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D69"/>
+  <dimension ref="A1:D68"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -737,16 +736,16 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -765,97 +764,97 @@
     </row>
     <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C3" s="1">
         <v>4</v>
       </c>
       <c r="D3" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>9</v>
+        <v>71</v>
       </c>
       <c r="C4" s="1">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="D4" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>72</v>
+        <v>9</v>
       </c>
       <c r="C5" s="1">
-        <v>125</v>
+        <v>408</v>
       </c>
       <c r="D5" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>75</v>
+        <v>41</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>9</v>
+        <v>67</v>
       </c>
       <c r="C6" s="1">
-        <v>408</v>
+        <v>116</v>
       </c>
       <c r="D6" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C7" s="1">
-        <v>116</v>
+        <v>610</v>
       </c>
       <c r="D7" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C8" s="1">
-        <v>610</v>
+        <v>411</v>
       </c>
       <c r="D8" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C9" s="1">
-        <v>411</v>
+        <v>709</v>
       </c>
       <c r="D9" s="1">
         <v>1</v>
@@ -863,97 +862,97 @@
     </row>
     <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>71</v>
+        <v>9</v>
       </c>
       <c r="C10" s="1">
-        <v>709</v>
+        <v>204</v>
       </c>
       <c r="D10" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>9</v>
+        <v>71</v>
       </c>
       <c r="C11" s="1">
-        <v>204</v>
+        <v>605</v>
       </c>
       <c r="D11" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C12" s="1">
-        <v>605</v>
+        <v>513</v>
       </c>
       <c r="D12" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C13" s="1">
-        <v>513</v>
+        <v>105</v>
       </c>
       <c r="D13" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>67</v>
       </c>
       <c r="C14" s="1">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="D14" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C15" s="1">
-        <v>118</v>
+        <v>305</v>
       </c>
       <c r="D15" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C16" s="1">
-        <v>305</v>
+        <v>127</v>
       </c>
       <c r="D16" s="1">
         <v>4</v>
@@ -961,27 +960,27 @@
     </row>
     <row r="17" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>67</v>
       </c>
       <c r="C17" s="1">
-        <v>127</v>
+        <v>402</v>
       </c>
       <c r="D17" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C18" s="1">
-        <v>402</v>
+        <v>119</v>
       </c>
       <c r="D18" s="1">
         <v>5</v>
@@ -989,125 +988,125 @@
     </row>
     <row r="19" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>26</v>
+        <v>61</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C19" s="1">
-        <v>119</v>
+        <v>1</v>
       </c>
       <c r="D19" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>62</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>69</v>
+        <v>9</v>
       </c>
       <c r="C20" s="1">
-        <v>1</v>
+        <v>202</v>
       </c>
       <c r="D20" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>9</v>
+        <v>71</v>
       </c>
       <c r="C21" s="1">
-        <v>202</v>
+        <v>504</v>
       </c>
       <c r="D21" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C22" s="1">
-        <v>504</v>
+        <v>514</v>
       </c>
       <c r="D22" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>59</v>
+        <v>25</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C23" s="1">
-        <v>514</v>
+        <v>134</v>
       </c>
       <c r="D23" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>71</v>
+        <v>9</v>
       </c>
       <c r="C24" s="1">
-        <v>134</v>
+        <v>108</v>
       </c>
       <c r="D24" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>15</v>
+        <v>59</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C25" s="1">
-        <v>108</v>
+        <v>412</v>
       </c>
       <c r="D25" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C26" s="1">
-        <v>412</v>
+        <v>502</v>
       </c>
       <c r="D26" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C27" s="1">
-        <v>502</v>
+        <v>401</v>
       </c>
       <c r="D27" s="1">
         <v>5</v>
@@ -1115,13 +1114,13 @@
     </row>
     <row r="28" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C28" s="1">
-        <v>401</v>
+        <v>416</v>
       </c>
       <c r="D28" s="1">
         <v>5</v>
@@ -1129,195 +1128,195 @@
     </row>
     <row r="29" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>58</v>
+        <v>3</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C29" s="1">
-        <v>416</v>
+        <v>706</v>
       </c>
       <c r="D29" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>3</v>
+        <v>75</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C30" s="1">
-        <v>706</v>
+        <v>307</v>
       </c>
       <c r="D30" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>76</v>
+        <v>14</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C31" s="1">
-        <v>307</v>
+        <v>203</v>
       </c>
       <c r="D31" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C32" s="1">
-        <v>203</v>
+        <v>608</v>
       </c>
       <c r="D32" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C33" s="1">
-        <v>608</v>
+        <v>707</v>
       </c>
       <c r="D33" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C34" s="1">
-        <v>707</v>
+        <v>104</v>
       </c>
       <c r="D34" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>47</v>
+        <v>2</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C35" s="1">
-        <v>104</v>
+        <v>404</v>
       </c>
       <c r="D35" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>71</v>
       </c>
       <c r="C36" s="1">
-        <v>404</v>
+        <v>511</v>
       </c>
       <c r="D36" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>19</v>
+        <v>56</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C37" s="1">
-        <v>511</v>
+        <v>901</v>
       </c>
       <c r="D37" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C38" s="1">
-        <v>901</v>
+        <v>114</v>
       </c>
       <c r="D38" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>64</v>
+        <v>29</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C39" s="1">
-        <v>114</v>
+        <v>130</v>
       </c>
       <c r="D39" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C40" s="1">
-        <v>130</v>
+        <v>113</v>
       </c>
       <c r="D40" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C41" s="1">
-        <v>113</v>
+        <v>512</v>
       </c>
       <c r="D41" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C42" s="1">
-        <v>512</v>
+        <v>604</v>
       </c>
       <c r="D42" s="1">
         <v>3</v>
@@ -1325,13 +1324,13 @@
     </row>
     <row r="43" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C43" s="1">
-        <v>604</v>
+        <v>403</v>
       </c>
       <c r="D43" s="1">
         <v>1</v>
@@ -1339,41 +1338,41 @@
     </row>
     <row r="44" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>71</v>
+        <v>9</v>
       </c>
       <c r="C44" s="1">
-        <v>403</v>
+        <v>109</v>
       </c>
       <c r="D44" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>9</v>
+        <v>66</v>
       </c>
       <c r="C45" s="1">
-        <v>109</v>
+        <v>601</v>
       </c>
       <c r="D45" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C46" s="1">
-        <v>601</v>
+        <v>906</v>
       </c>
       <c r="D46" s="1">
         <v>1</v>
@@ -1381,13 +1380,13 @@
     </row>
     <row r="47" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>4</v>
+        <v>48</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C47" s="1">
-        <v>906</v>
+        <v>212</v>
       </c>
       <c r="D47" s="1">
         <v>1</v>
@@ -1395,30 +1394,30 @@
     </row>
     <row r="48" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C48" s="1">
-        <v>212</v>
+        <v>510</v>
       </c>
       <c r="D48" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C49" s="1">
-        <v>510</v>
+        <v>413</v>
       </c>
       <c r="D49" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -1429,49 +1428,49 @@
         <v>71</v>
       </c>
       <c r="C50" s="1">
-        <v>413</v>
+        <v>501</v>
       </c>
       <c r="D50" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C51" s="1">
-        <v>501</v>
+        <v>3</v>
       </c>
       <c r="D51" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C52" s="1">
-        <v>3</v>
+        <v>410</v>
       </c>
       <c r="D52" s="1">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C53" s="1">
-        <v>410</v>
+        <v>902</v>
       </c>
       <c r="D53" s="1">
         <v>1</v>
@@ -1479,41 +1478,41 @@
     </row>
     <row r="54" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>9</v>
+        <v>66</v>
       </c>
       <c r="C54" s="1">
-        <v>902</v>
+        <v>607</v>
       </c>
       <c r="D54" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C55" s="1">
-        <v>607</v>
+        <v>508</v>
       </c>
       <c r="D55" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C56" s="1">
-        <v>508</v>
+        <v>120</v>
       </c>
       <c r="D56" s="1">
         <v>3</v>
@@ -1521,41 +1520,41 @@
     </row>
     <row r="57" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C57" s="1">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="D57" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C58" s="1">
-        <v>131</v>
+        <v>213</v>
       </c>
       <c r="D58" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C59" s="1">
-        <v>213</v>
+        <v>711</v>
       </c>
       <c r="D59" s="1">
         <v>1</v>
@@ -1563,55 +1562,55 @@
     </row>
     <row r="60" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>54</v>
+        <v>76</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C60" s="1">
-        <v>711</v>
+        <v>516</v>
       </c>
       <c r="D60" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C61" s="1">
-        <v>516</v>
+        <v>415</v>
       </c>
       <c r="D61" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C62" s="1">
-        <v>415</v>
+        <v>803</v>
       </c>
       <c r="D62" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C63" s="1">
-        <v>803</v>
+        <v>133</v>
       </c>
       <c r="D63" s="1">
         <v>4</v>
@@ -1619,13 +1618,13 @@
     </row>
     <row r="64" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C64" s="1">
-        <v>133</v>
+        <v>609</v>
       </c>
       <c r="D64" s="1">
         <v>4</v>
@@ -1633,71 +1632,57 @@
     </row>
     <row r="65" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C65" s="1">
-        <v>609</v>
+        <v>132</v>
       </c>
       <c r="D65" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C66" s="1">
-        <v>132</v>
+        <v>405</v>
       </c>
       <c r="D66" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C67" s="1">
-        <v>405</v>
+        <v>117</v>
       </c>
       <c r="D67" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>45</v>
+        <v>5</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C68" s="1">
-        <v>117</v>
+        <v>801</v>
       </c>
       <c r="D68" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A69" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C69" s="1">
-        <v>801</v>
-      </c>
-      <c r="D69" s="1">
         <v>3</v>
       </c>
     </row>
